--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/Studentlist20250625091601.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/Studentlist20250625091601.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DA2419-5630-4DF1-8630-F1334469FBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F54E127-1F2F-44C0-A9D1-AE91042A1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,6 +189,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,12 +213,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="Y14" sqref="Y14:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,105 +533,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -640,7 +640,9 @@
       <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -656,16 +658,18 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -681,9 +685,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -734,158 +738,153 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -893,6 +892,11 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/Studentlist20250625091601.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ/Studentlist20250625091601.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE306_Web Programming_การเขียนโปรแกรมบนเว็บ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F54E127-1F2F-44C0-A9D1-AE91042A1BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF53050-5141-428B-B9E5-C51215139CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,37 +97,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
@@ -184,33 +154,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,371 +478,377 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14:Y15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="19" width="3" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="1" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>25</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="1" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>7</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>8</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <v>10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>11</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>12</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>13</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>14</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -892,11 +856,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
